--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621366.8204450931</v>
+        <v>677174.6517249097</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484457</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7691983.031927431</v>
+        <v>7698296.163695892</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,7 +671,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>299.9405530688264</v>
+        <v>269.6877385375733</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -832,10 +832,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.8504669600428</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>78.35613444272944</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>248.6683901466773</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>285.8594785580456</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>149.7411312962239</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.6414797134383</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>137.2324722543951</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>349.9585418359571</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1294,19 +1294,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>161.0723471410682</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>2.433448944848239</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112168</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>206.8981232563544</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783089135</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1537,7 +1537,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513564</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>129.7139627068456</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>18.227720276594</v>
+        <v>18.2277202765949</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>7.264602967362285</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1856,13 +1856,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>129.3727203283462</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>33.08339867820294</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2087,10 +2087,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>161.838486137797</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>238.8055991173959</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068458</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>28.46824604903619</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>19.80087630034424</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3475,7 +3475,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>103.8284742946038</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3721,13 +3721,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>53.06991172717082</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630713</v>
       </c>
     </row>
     <row r="41">
@@ -3803,7 +3803,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864815</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>263.8996361793897</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3961,7 +3961,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>103.345659457196</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -4147,10 +4147,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>89.78186289252649</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>951.9964940415845</v>
+        <v>1782.159143961148</v>
       </c>
       <c r="C2" t="n">
-        <v>523.4148197788528</v>
+        <v>1344.016671144571</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>908.1068863190158</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>878.372545517715</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>450.5051159269228</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="K2" t="n">
-        <v>437.0247332457074</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="L2" t="n">
-        <v>437.0247332457074</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="M2" t="n">
-        <v>437.0247332457074</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="N2" t="n">
-        <v>437.0247332457074</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1739.711376797681</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2286.210162756276</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2092.747277443159</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2091.932226894597</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>2076.830167514312</v>
       </c>
       <c r="Y2" t="n">
-        <v>1378.296064526492</v>
+        <v>1804.418310405652</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414794</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781217</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.732279524675</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516287</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677903</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.8429367339742</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064426</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985416</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028995</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477378</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807948</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031418</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420218</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212426</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>851.7801684713901</v>
+        <v>988.2632708524425</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>815.7015593356674</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>649.8235665371901</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>480.0655627879274</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>303.3585087496837</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148765</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>410.4454242860121</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>828.6553060539732</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.259348259376</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2150.067225618312</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214705</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214705</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>2211.875227467187</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.765608785789</v>
+        <v>2211.875227467187</v>
       </c>
       <c r="V4" t="n">
-        <v>1596.617998237578</v>
+        <v>1924.919719337617</v>
       </c>
       <c r="W4" t="n">
-        <v>1324.591593823869</v>
+        <v>1652.893314923909</v>
       </c>
       <c r="X4" t="n">
-        <v>1079.199839157282</v>
+        <v>1407.501560257321</v>
       </c>
       <c r="Y4" t="n">
-        <v>851.7801684713901</v>
+        <v>1180.08188957143</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>1599.490795190364</v>
       </c>
       <c r="C5" t="n">
-        <v>812.5785571901426</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D5" t="n">
-        <v>780.7091764049912</v>
+        <v>912.4008182974577</v>
       </c>
       <c r="E5" t="n">
-        <v>750.9748356036905</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F5" t="n">
-        <v>323.1074060128983</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>323.1074060128983</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1625.99568129481</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1621.749961634868</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>858.4638871896879</v>
+        <v>962.7013733912472</v>
       </c>
       <c r="C7" t="n">
-        <v>685.9021756729128</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2518.807158455444</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2272.927712033899</v>
       </c>
       <c r="U7" t="n">
-        <v>1516.524240083786</v>
+        <v>1994.494711287005</v>
       </c>
       <c r="V7" t="n">
-        <v>1516.524240083786</v>
+        <v>1707.539203157435</v>
       </c>
       <c r="W7" t="n">
-        <v>1516.524240083786</v>
+        <v>1435.512798743727</v>
       </c>
       <c r="X7" t="n">
-        <v>1271.132485417198</v>
+        <v>1190.121044077139</v>
       </c>
       <c r="Y7" t="n">
-        <v>1050.282505908675</v>
+        <v>962.7013733912472</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1657.556118049522</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C8" t="n">
-        <v>1219.413645232945</v>
+        <v>944.270199082609</v>
       </c>
       <c r="D8" t="n">
-        <v>783.5038604073895</v>
+        <v>912.4008182974576</v>
       </c>
       <c r="E8" t="n">
-        <v>349.7291155656847</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>325.9020900152965</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>325.9020900152965</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>304.2846042752957</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>304.2846042752957</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>759.3373055743914</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>759.3373055743914</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>759.3373055743914</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743914</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873487</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172583</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925639</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925639</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1699.978114082816</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1699.978114082816</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1699.978114082816</v>
+        <v>2232.915476013288</v>
       </c>
       <c r="W8" t="n">
-        <v>1699.163063534253</v>
+        <v>1828.060021424321</v>
       </c>
       <c r="X8" t="n">
-        <v>1684.061004153968</v>
+        <v>1408.917558003632</v>
       </c>
       <c r="Y8" t="n">
-        <v>1679.815284494025</v>
+        <v>1404.671838343689</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330011</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599548</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230031</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897038</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842783</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543886</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543886</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543886</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543886</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.705089057563</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C10" t="n">
-        <v>508.1433775407879</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D10" t="n">
-        <v>342.2653847423106</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>342.2653847423106</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>342.2653847423106</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681383</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851279</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>311.5303900296483</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>729.7402717976095</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1184.792973096705</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1322.897104090965</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090965</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061307</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925639</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925639</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1679.355404223636</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1679.355404223636</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1676.897374986416</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1389.941866856846</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>1117.915462443138</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>872.5237077765501</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>872.5237077765501</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689265</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872689</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047133</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205428</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2639626146359</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378998</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111519</v>
@@ -5045,22 +5045,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940406</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.158956950349</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884176</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295209</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.54408887452</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174173</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="12">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580467</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412717</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427942</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F13" t="n">
         <v>262.3272516552875</v>
@@ -5236,13 +5236,13 @@
         <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162926</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168567</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C14" t="n">
         <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526435</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847301</v>
+        <v>944.829865684731</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939379</v>
+        <v>516.9624360939388</v>
       </c>
       <c r="G14" t="n">
-        <v>115.5646047172013</v>
+        <v>115.5646047172022</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X14" t="n">
         <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653475</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580463</v>
+        <v>784.8119928040991</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412712</v>
+        <v>612.250281287324</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>446.3722884888468</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935312</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477033</v>
+        <v>976.6306115230861</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168566</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.514395351989</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1378.604610526434</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>944.8298656847292</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>516.962436093937</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>931.0862686392932</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.40092234507</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239595</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112633</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.85743042965</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363476</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.38502577451</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353821</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653474</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580463</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412712</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D19" t="n">
         <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935312</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111506</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5716,7 +5716,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477033</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168567</v>
+        <v>2336.308741984731</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.51439535199</v>
+        <v>1898.166269168154</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526434</v>
+        <v>1462.256484342598</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>1028.481739500894</v>
       </c>
       <c r="F20" t="n">
         <v>787.263962614635</v>
@@ -5744,58 +5744,58 @@
         <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>1186.925458503957</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>1186.925458503957</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>1186.925458503957</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940404</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.83610851071</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344106</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302701</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239595</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112633</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.85743042965</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363477</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.38502577451</v>
+        <v>3590.036899590674</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353821</v>
+        <v>3170.894436169985</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653474</v>
+        <v>2762.608312469638</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5893,31 +5893,31 @@
         <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F22" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5938,10 +5938,10 @@
         <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119685</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.84397037279</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
         <v>1883.888462243221</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,16 +6172,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
         <v>1617.386921419177</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6318,7 +6318,7 @@
         <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883837</v>
+        <v>970.9960463903951</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716086</v>
+        <v>798.4343348736201</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731313</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258801</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876363</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.500009313464</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.500009313464</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173571</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471568</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050023</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303128</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173559</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.38472175985</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093263</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407371</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1035.728611060352</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>863.1668995435765</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>697.2889067450992</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>527.5309029958364</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>350.8238489575926</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6622,7 +6622,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1227.547229779339</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6701,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O32" t="n">
+        <v>4440.279291740943</v>
+      </c>
+      <c r="P32" t="n">
         <v>5113.042013538981</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,22 +6938,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
         <v>444.5591692831957</v>
@@ -7129,7 +7129,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W37" t="n">
         <v>1617.386921419177</v>
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,37 +7172,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912873</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1008.757289365886</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831959</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755404</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008509</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1673.387333437352</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X40" t="n">
-        <v>1427.995578770765</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1200.575908084873</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7409,52 +7409,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7500,16 +7500,16 @@
         <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1686.710109957756</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1686.710109957756</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1686.710109957756</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1686.710109957756</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1015.441008084184</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C43" t="n">
-        <v>842.8792965674088</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E43" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831959</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7582,37 +7582,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
         <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050032</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2047.234345979941</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1760.278837850371</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1488.252433436663</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1242.860678770076</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1015.441008084184</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7646,52 +7646,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1017.756527079655</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>845.1948155628803</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>679.316822764403</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>509.5588190151403</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>332.8517649768965</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1209.575145798643</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>40.34758805803722</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854919</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.3808099909302</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>58.38468441396105</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.2148169866495</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314098</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314098</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314098</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314098</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662708</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314095</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,13 +8617,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314098</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>139.4991222164244</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,10 +8693,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>480.468961415464</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9173,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>309.606269745711</v>
       </c>
       <c r="O17" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9401,16 +9401,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>661.5502973433572</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10118,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,13 +10361,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>-3.292261534887825e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10586,25 +10586,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>79.58635534528503</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>10.96843159933738</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>268.0111327346204</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>268.0111327346219</v>
+        <v>268.011132734621</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>268.0111327346225</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>184.7831561774888</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>267.5985112554907</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>184.7831561774884</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>139.5921776627339</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>69.7165723808139</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>144.1344859240864</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>216.2362286424006</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>11.74903456003602</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>74.15349933190411</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>676316.2964583618</v>
+        <v>678260.1494886993</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>676316.2964583618</v>
+        <v>678810.5968698952</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>676678.8574147352</v>
+        <v>678810.5968698952</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>644799.574484075</v>
+        <v>644799.5744840752</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>644799.574484075</v>
+        <v>644799.5744840751</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>644799.574484075</v>
+        <v>644799.5744840751</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672010.8533514001</v>
+        <v>672010.8533514004</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672010.8533514004</v>
+        <v>672010.8533514005</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672010.8533514005</v>
+        <v>672010.8533514004</v>
       </c>
     </row>
     <row r="15">
@@ -26323,10 +26323,10 @@
         <v>252761.9489858382</v>
       </c>
       <c r="F2" t="n">
-        <v>252761.9489858381</v>
+        <v>252761.9489858382</v>
       </c>
       <c r="G2" t="n">
-        <v>252761.9489858381</v>
+        <v>252761.9489858382</v>
       </c>
       <c r="H2" t="n">
         <v>252761.9489858382</v>
@@ -26335,22 +26335,22 @@
         <v>263428.7920686761</v>
       </c>
       <c r="J2" t="n">
-        <v>263428.792068676</v>
+        <v>263428.7920686761</v>
       </c>
       <c r="K2" t="n">
         <v>263428.7920686761</v>
       </c>
       <c r="L2" t="n">
-        <v>263428.792068676</v>
+        <v>263428.7920686761</v>
       </c>
       <c r="M2" t="n">
         <v>263428.7920686761</v>
       </c>
       <c r="N2" t="n">
-        <v>263428.7920686761</v>
+        <v>263428.792068676</v>
       </c>
       <c r="O2" t="n">
-        <v>263428.7920686761</v>
+        <v>263428.792068676</v>
       </c>
       <c r="P2" t="n">
         <v>263428.7920686761</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039026</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390701</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200282</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520273</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283958</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.829485613</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784543</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510015</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104675</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>133864.3835971967</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.2398651109</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>167571.7627414876</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>13668.38414064829</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="F4" t="n">
         <v>13668.38414064833</v>
       </c>
       <c r="G4" t="n">
-        <v>13668.38414064832</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="H4" t="n">
         <v>13668.38414064833</v>
@@ -26454,7 +26454,7 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049268</v>
       </c>
       <c r="P4" t="n">
         <v>14245.20557049264</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814187</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846971</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
-      <c r="N5" t="n">
-        <v>77718.23860579252</v>
-      </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108842.668716839</v>
+        <v>-142452.1164140369</v>
       </c>
       <c r="C6" t="n">
-        <v>33348.63194287095</v>
+        <v>54389.73778440421</v>
       </c>
       <c r="D6" t="n">
-        <v>27945.8195832441</v>
+        <v>71730.28215831121</v>
       </c>
       <c r="E6" t="n">
-        <v>-58225.07118448487</v>
+        <v>3762.588802631049</v>
       </c>
       <c r="F6" t="n">
-        <v>165574.2225675423</v>
+        <v>165497.6640127455</v>
       </c>
       <c r="G6" t="n">
-        <v>165574.2225675422</v>
+        <v>165497.6640127455</v>
       </c>
       <c r="H6" t="n">
-        <v>165574.2225675423</v>
+        <v>165497.6640127455</v>
       </c>
       <c r="I6" t="n">
-        <v>153100.6322595513</v>
+        <v>153077.4079201689</v>
       </c>
       <c r="J6" t="n">
-        <v>60450.88254740069</v>
+        <v>10834.29406739537</v>
       </c>
       <c r="K6" t="n">
-        <v>171465.347892391</v>
+        <v>157628.1149851629</v>
       </c>
       <c r="L6" t="n">
-        <v>162517.7368038809</v>
+        <v>171442.1235530084</v>
       </c>
       <c r="M6" t="n">
-        <v>-15325.6387180766</v>
+        <v>36452.17894000479</v>
       </c>
       <c r="N6" t="n">
-        <v>171465.347892391</v>
+        <v>171442.1235530083</v>
       </c>
       <c r="O6" t="n">
-        <v>171465.347892391</v>
+        <v>171442.1235530082</v>
       </c>
       <c r="P6" t="n">
-        <v>171465.3478923909</v>
+        <v>171442.1235530084</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314098</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,10 +26802,10 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130548</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.55051528253</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080592</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130548</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825298</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130548</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.55051528253</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27436,7 +27436,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>104.2627093945167</v>
+        <v>134.5155239257698</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>23.57018499728653</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>205.7298186055444</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>185.0926579417336</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3793744531702714</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,7 +27676,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>7.907823718759431</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.503994265594486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>80.63408260129663</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>9.032238729554592</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3.14686572942432</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>273.2152217945775</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>40.34758805803722</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854919</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.3808099909302</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>58.38468441396105</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.2148169866495</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314098</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314098</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314098</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314098</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662708</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314095</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314098</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>139.4991222164244</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,10 +35413,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>480.468961415464</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35893,10 +35893,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>309.606269745711</v>
       </c>
       <c r="O17" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,16 +36121,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>661.5502973433572</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697549</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36759,13 +36759,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>-8.822354947677989e-13</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37069,7 +37069,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,13 +37078,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37710,7 +37710,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>446.726063795601</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512943</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37868,19 +37868,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>79.58635534528503</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512952</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
